--- a/cta策略/result/螺纹/MACD_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1004010930593786</v>
+        <v>0.0536981638123557</v>
       </c>
       <c r="D2">
-        <v>0.2992470554092013</v>
+        <v>0.1269260818294443</v>
       </c>
       <c r="E2">
-        <v>0.3663976027410448</v>
+        <v>0.354012184571296</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/MACD_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.0536981638123557</v>
+        <v>0.06786229909026553</v>
       </c>
       <c r="D2">
-        <v>0.1269260818294443</v>
+        <v>0.1204787386733945</v>
       </c>
       <c r="E2">
-        <v>0.354012184571296</v>
+        <v>0.1511753840942549</v>
       </c>
       <c r="F2">
-        <v>0.125</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
   </sheetData>
